--- a/mbs-perturbation/greedy/elm/smote/chatty_elm_tanh_smote_results.xlsx
+++ b/mbs-perturbation/greedy/elm/smote/chatty_elm_tanh_smote_results.xlsx
@@ -465,16 +465,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5010893246187363</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0.9033816425120773</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6676342525399129</v>
+        <v>0.6824817518248175</v>
       </c>
       <c r="E2" t="n">
-        <v>0.512987012987013</v>
+        <v>0.6353353771832033</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5604395604395604</v>
+        <v>0.4927184466019418</v>
       </c>
       <c r="C3" t="n">
-        <v>0.918918918918919</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6962457337883958</v>
+        <v>0.6601626016260164</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6739228768517472</v>
+        <v>0.5070754716981132</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5285087719298246</v>
+        <v>0.4962406015037594</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6915351506456242</v>
+        <v>0.6633165829145727</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5273972602739726</v>
+        <v>0.5591514220546479</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +516,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5294117647058824</v>
+        <v>0.5076530612244898</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6923076923076924</v>
+        <v>0.673434856175973</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5663716814159292</v>
+        <v>0.62106830448539</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.4977777777777778</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6646884272997032</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.548728813559322</v>
+        <v>0.5108695652173912</v>
       </c>
     </row>
     <row r="7">
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5234454398943563</v>
+        <v>0.4089998412208769</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9837837837837838</v>
+        <v>0.7806763285024154</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6824822513162656</v>
+        <v>0.5358791585082759</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5658815290175967</v>
+        <v>0.5667000281277491</v>
       </c>
     </row>
   </sheetData>
